--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1180,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,7 +1207,10 @@
         <v>20.0</v>
       </c>
       <c r="H1" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
@@ -1233,6 +1236,9 @@
       <c r="H2" t="n">
         <v>2.0</v>
       </c>
+      <c r="I2" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1257,6 +1263,9 @@
       <c r="H3" t="n">
         <v>2.0</v>
       </c>
+      <c r="I3" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1281,6 +1290,9 @@
       <c r="H4" t="n">
         <v>2.0</v>
       </c>
+      <c r="I4" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1305,6 +1317,9 @@
       <c r="H5" t="n">
         <v>2.0</v>
       </c>
+      <c r="I5" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1329,6 +1344,9 @@
       <c r="H6" t="n">
         <v>2.0</v>
       </c>
+      <c r="I6" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1353,6 +1371,9 @@
       <c r="H7" t="n">
         <v>1.0</v>
       </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1377,6 +1398,9 @@
       <c r="H8" t="n">
         <v>2.0</v>
       </c>
+      <c r="I8" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1401,6 +1425,9 @@
       <c r="H9" t="n">
         <v>2.0</v>
       </c>
+      <c r="I9" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1425,6 +1452,9 @@
       <c r="H10" t="n">
         <v>2.0</v>
       </c>
+      <c r="I10" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1449,6 +1479,9 @@
       <c r="H11" t="n">
         <v>2.0</v>
       </c>
+      <c r="I11" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1473,6 +1506,9 @@
       <c r="H12" t="n">
         <v>2.0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1497,6 +1533,9 @@
       <c r="H13" t="n">
         <v>2.0</v>
       </c>
+      <c r="I13" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1521,6 +1560,9 @@
       <c r="H14" t="n">
         <v>2.0</v>
       </c>
+      <c r="I14" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1545,6 +1587,9 @@
       <c r="H15" t="n">
         <v>2.0</v>
       </c>
+      <c r="I15" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1569,6 +1614,9 @@
       <c r="H16" t="n">
         <v>2.0</v>
       </c>
+      <c r="I16" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1593,6 +1641,9 @@
       <c r="H17" t="n">
         <v>2.0</v>
       </c>
+      <c r="I17" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1617,6 +1668,9 @@
       <c r="H18" t="n">
         <v>2.0</v>
       </c>
+      <c r="I18" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1641,6 +1695,9 @@
       <c r="H19" t="n">
         <v>2.0</v>
       </c>
+      <c r="I19" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1665,6 +1722,9 @@
       <c r="H20" t="n">
         <v>2.0</v>
       </c>
+      <c r="I20" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1689,6 +1749,9 @@
       <c r="H21" t="n">
         <v>2.0</v>
       </c>
+      <c r="I21" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1713,6 +1776,9 @@
       <c r="H22" t="n">
         <v>2.0</v>
       </c>
+      <c r="I22" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1737,6 +1803,9 @@
       <c r="H23" t="n">
         <v>2.0</v>
       </c>
+      <c r="I23" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1761,6 +1830,9 @@
       <c r="H24" t="n">
         <v>2.0</v>
       </c>
+      <c r="I24" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1785,6 +1857,9 @@
       <c r="H25" t="n">
         <v>2.0</v>
       </c>
+      <c r="I25" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1809,6 +1884,9 @@
       <c r="H26" t="n">
         <v>2.0</v>
       </c>
+      <c r="I26" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1831,6 +1909,9 @@
         <v>5.0</v>
       </c>
       <c r="H27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I27" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\Projet-informatique-ClassCraft\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F7C391-E8AF-4266-8742-E1EF5F70A88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="32">
   <si>
     <t>4444</t>
   </si>
@@ -105,16 +113,18 @@
   </si>
   <si>
     <t>Wellan</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -126,7 +136,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -144,12 +154,25 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -164,13 +187,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -187,7 +216,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -202,13 +231,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -225,7 +260,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -240,13 +275,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -263,7 +304,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -278,13 +319,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -301,7 +348,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -316,13 +363,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -339,7 +392,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -354,13 +407,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -377,7 +436,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -392,13 +451,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -415,7 +480,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -430,13 +495,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -453,7 +524,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -468,13 +539,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -491,7 +568,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -506,13 +583,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -529,7 +612,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -544,13 +627,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -567,7 +656,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -582,13 +671,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -605,7 +700,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -620,13 +715,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -643,7 +744,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -658,13 +759,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -681,7 +788,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -696,13 +803,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -719,7 +832,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -734,13 +847,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -757,7 +876,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -772,13 +891,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -795,7 +920,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -810,13 +935,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -833,7 +964,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -848,13 +979,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -871,7 +1008,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -886,13 +1023,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="21" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -909,7 +1052,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -924,13 +1067,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="22" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -947,7 +1096,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -962,13 +1111,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="23" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -985,7 +1140,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1000,13 +1155,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="24" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1023,7 +1184,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1038,13 +1199,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="25" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1061,7 +1228,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1076,13 +1243,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="26" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1099,7 +1272,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1114,13 +1287,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="27" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1137,7 +1316,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1152,13 +1331,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPr id="28" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1178,745 +1363,1420 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="n">
-        <v>0.0</v>
+      <c r="C1">
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1"/>
-      <c r="F1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G1" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I1" t="n">
-        <v>4.0</v>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>20</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.0</v>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.0</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.0</v>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.0</v>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.0</v>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.0</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.0</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8"/>
-      <c r="F8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.0</v>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.0</v>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9"/>
-      <c r="F9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.0</v>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10"/>
-      <c r="F10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.0</v>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11"/>
-      <c r="F11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.0</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12"/>
-      <c r="F12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.0</v>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.0</v>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.0</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14"/>
-      <c r="F14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.0</v>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15"/>
-      <c r="F15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.0</v>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.0</v>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16"/>
-      <c r="F16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.0</v>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17"/>
-      <c r="F17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.0</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.0</v>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="E18"/>
-      <c r="F18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.0</v>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.0</v>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19"/>
-      <c r="F19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.0</v>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.0</v>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20"/>
-      <c r="F20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.0</v>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.0</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E21"/>
-      <c r="F21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.0</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.0</v>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E23"/>
-      <c r="F23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.0</v>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24"/>
-      <c r="F24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.0</v>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="E25"/>
-      <c r="F25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.0</v>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E26"/>
-      <c r="F26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.0</v>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.0</v>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="E27"/>
-      <c r="F27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.0</v>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -12,39 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="27">
   <si>
     <t>4444</t>
   </si>
   <si>
-    <t>Alex</t>
+    <t>bernat</t>
   </si>
   <si>
     <t>rocher</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>amos</t>
-  </si>
-  <si>
-    <t>anna</t>
-  </si>
-  <si>
-    <t>annette</t>
-  </si>
-  <si>
-    <t>arthur</t>
-  </si>
-  <si>
-    <t>king</t>
-  </si>
-  <si>
-    <t>bernat</t>
   </si>
   <si>
     <t>bob</t>
@@ -1029,164 +1011,12 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9006</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2143125" cy="2143125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9006</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2143125" cy="2143125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9006</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2143125" cy="2143125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9006</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 1" descr="Picture"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="true"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2143125" cy="2143125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1210,28 +1040,28 @@
         <v>1.0</v>
       </c>
       <c r="G1" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="H1" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -1245,32 +1075,32 @@
         <v>0.0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.0</v>
+        <v>31.0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -1281,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -1294,28 +1124,28 @@
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1323,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -1342,22 +1172,22 @@
         <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
@@ -1384,22 +1214,22 @@
         <v>2.0</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1426,22 +1256,22 @@
         <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1455,35 +1285,35 @@
         <v>0.0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
         <v>1.0</v>
       </c>
       <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
         <v>2.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.0</v>
-      </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1491,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -1504,28 +1334,28 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
         <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1533,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -1552,22 +1382,22 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1575,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -1588,28 +1418,28 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1617,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -1630,28 +1460,28 @@
         <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I11" t="s">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -1672,28 +1502,28 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1701,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -1720,22 +1550,22 @@
         <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1743,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -1762,22 +1592,22 @@
         <v>2.0</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1785,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -1798,28 +1628,28 @@
         <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
         <v>2.0</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1827,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -1846,22 +1676,22 @@
         <v>2.0</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1869,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -1888,22 +1718,22 @@
         <v>2.0</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -1930,22 +1760,22 @@
         <v>2.0</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1953,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -1972,22 +1802,22 @@
         <v>2.0</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1995,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -2008,28 +1838,28 @@
         <v>1.0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n">
         <v>2.0</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2037,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -2050,28 +1880,28 @@
         <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H21" t="n">
         <v>2.0</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2079,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -2098,22 +1928,22 @@
         <v>2.0</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2121,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -2134,196 +1964,28 @@
         <v>1.0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H23" t="n">
         <v>2.0</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -26,10 +26,10 @@
     <t>C:\Users\user\Documents\Projet-informatique-ClassCraft\default.png</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>bob</t>
@@ -178,16 +178,16 @@
         <v>4</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -208,28 +208,28 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="H2" t="n">
         <v>4.0</v>
       </c>
       <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -256,22 +256,22 @@
         <v>3.0</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -298,22 +298,22 @@
         <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -340,22 +340,22 @@
         <v>2.0</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -382,22 +382,22 @@
         <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -424,22 +424,22 @@
         <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -466,22 +466,22 @@
         <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -508,22 +508,22 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -550,22 +550,22 @@
         <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -592,22 +592,22 @@
         <v>3.0</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -634,22 +634,22 @@
         <v>3.0</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -676,22 +676,22 @@
         <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -718,22 +718,22 @@
         <v>2.0</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -760,22 +760,22 @@
         <v>2.0</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -802,22 +802,22 @@
         <v>2.0</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -844,22 +844,22 @@
         <v>2.0</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -886,22 +886,22 @@
         <v>2.0</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -928,22 +928,22 @@
         <v>2.0</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -970,22 +970,22 @@
         <v>2.0</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         <v>2.0</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1054,22 +1054,22 @@
         <v>2.0</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1096,22 +1096,22 @@
         <v>2.0</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="27">
   <si>
     <t>4444</t>
   </si>
@@ -21,9 +21,6 @@
   </si>
   <si>
     <t>rocher</t>
-  </si>
-  <si>
-    <t>C:\Users\user\Documents\Projet-informatique-ClassCraft\default.png</t>
   </si>
   <si>
     <t>false</t>
@@ -159,9 +156,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1"/>
       <c r="F1" t="n">
         <v>1.0</v>
       </c>
@@ -172,22 +167,22 @@
         <v>6.0</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -195,13 +190,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
@@ -214,22 +209,22 @@
         <v>4.0</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -237,7 +232,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -256,22 +251,22 @@
         <v>3.0</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -279,7 +274,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -298,22 +293,22 @@
         <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -321,7 +316,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -340,22 +335,22 @@
         <v>2.0</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -363,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -382,22 +377,22 @@
         <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -405,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -424,22 +419,22 @@
         <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -447,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -466,22 +461,22 @@
         <v>2.0</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -489,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -508,22 +503,22 @@
         <v>2.0</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -531,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -550,22 +545,22 @@
         <v>2.0</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -592,22 +587,22 @@
         <v>3.0</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -615,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -634,22 +629,22 @@
         <v>3.0</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -657,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -676,22 +671,22 @@
         <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -718,22 +713,22 @@
         <v>2.0</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -741,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -760,22 +755,22 @@
         <v>2.0</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -802,22 +797,22 @@
         <v>2.0</v>
       </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -825,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -844,22 +839,22 @@
         <v>2.0</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -867,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -886,22 +881,22 @@
         <v>2.0</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -909,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -928,22 +923,22 @@
         <v>2.0</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -951,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -970,22 +965,22 @@
         <v>2.0</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -993,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -1012,22 +1007,22 @@
         <v>2.0</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1035,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -1054,22 +1049,22 @@
         <v>2.0</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1077,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -1096,22 +1091,22 @@
         <v>2.0</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -17,7 +17,7 @@
     <t>4444</t>
   </si>
   <si>
-    <t>bernat</t>
+    <t>xernat</t>
   </si>
   <si>
     <t>rocher</t>
@@ -137,79 +137,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1"/>
-      <c r="F1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G1" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H1" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.0</v>
+        <v>26.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
@@ -224,7 +182,7 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -232,41 +190,41 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -274,7 +232,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -287,13 +245,13 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
@@ -316,7 +274,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -358,7 +316,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -400,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -442,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -484,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -526,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -539,7 +497,7 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>
@@ -568,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -584,10 +542,10 @@
         <v>5.0</v>
       </c>
       <c r="H11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
         <v>4</v>
@@ -652,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -665,13 +623,13 @@
         <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
@@ -694,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -736,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -778,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -791,7 +749,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H16" t="n">
         <v>2.0</v>
@@ -820,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -833,7 +791,7 @@
         <v>1.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H17" t="n">
         <v>2.0</v>
@@ -862,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -904,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -946,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -988,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -1001,7 +959,7 @@
         <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
         <v>2.0</v>
@@ -1030,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
@@ -1043,7 +1001,7 @@
         <v>1.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H22" t="n">
         <v>2.0</v>
@@ -1072,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -1085,27 +1043,69 @@
         <v>1.0</v>
       </c>
       <c r="G23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" t="n">
         <v>5.0</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="H24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -17,82 +17,82 @@
     <t>4444</t>
   </si>
   <si>
+    <t xml:space="preserve">xbobette </t>
+  </si>
+  <si>
+    <t>rocher</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>burnie</t>
+  </si>
+  <si>
+    <t>dedue</t>
+  </si>
+  <si>
+    <t>fierre</t>
+  </si>
+  <si>
+    <t>fordi</t>
+  </si>
+  <si>
+    <t>frierre</t>
+  </si>
+  <si>
+    <t>Hadryen</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>mercedes</t>
+  </si>
+  <si>
+    <t>Nour</t>
+  </si>
+  <si>
+    <t>patrick</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Wellan</t>
+  </si>
+  <si>
+    <t>xbob</t>
+  </si>
+  <si>
+    <t>pseudo</t>
+  </si>
+  <si>
+    <t>xcharles</t>
+  </si>
+  <si>
     <t>xernat</t>
-  </si>
-  <si>
-    <t>rocher</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>bob</t>
-  </si>
-  <si>
-    <t>pseudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bobette </t>
-  </si>
-  <si>
-    <t>burnie</t>
-  </si>
-  <si>
-    <t>charles</t>
-  </si>
-  <si>
-    <t>dedue</t>
-  </si>
-  <si>
-    <t>fierre</t>
-  </si>
-  <si>
-    <t>fordi</t>
-  </si>
-  <si>
-    <t>frierre</t>
-  </si>
-  <si>
-    <t>Hadryen</t>
-  </si>
-  <si>
-    <t>jason</t>
-  </si>
-  <si>
-    <t>jean</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>Kira</t>
-  </si>
-  <si>
-    <t>louis</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>mercedes</t>
-  </si>
-  <si>
-    <t>Nour</t>
-  </si>
-  <si>
-    <t>patrick</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>Wellan</t>
   </si>
 </sst>
 </file>
@@ -161,22 +161,22 @@
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>26.0</v>
+        <v>31.0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
         <v>4</v>
@@ -196,35 +196,35 @@
         <v>0.0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>32.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -232,7 +232,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -245,13 +245,13 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
@@ -274,7 +274,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -316,7 +316,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -413,7 +413,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H8" t="n">
         <v>2.0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -455,13 +455,13 @@
         <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -497,13 +497,13 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="s">
         <v>4</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -539,7 +539,7 @@
         <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n">
         <v>2.0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -581,13 +581,13 @@
         <v>1.0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>4</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -623,13 +623,13 @@
         <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -665,7 +665,7 @@
         <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H14" t="n">
         <v>2.0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -791,7 +791,7 @@
         <v>1.0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>2.0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
         <v>0.0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -875,7 +875,7 @@
         <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H19" t="n">
         <v>2.0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
         <v>0.0</v>
@@ -956,10 +956,10 @@
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H21" t="n">
         <v>2.0</v>
@@ -988,41 +988,41 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22" t="s">
         <v>24</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
         <v>1.0</v>
       </c>
       <c r="G22" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I22" t="s">
         <v>4</v>
       </c>
       <c r="J22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="s">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1082,25 +1082,25 @@
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="s">
         <v>4</v>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -17,76 +17,76 @@
     <t>4444</t>
   </si>
   <si>
+    <t>burnie</t>
+  </si>
+  <si>
+    <t>rocher</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>dedue</t>
+  </si>
+  <si>
+    <t>fierre</t>
+  </si>
+  <si>
+    <t>fordi</t>
+  </si>
+  <si>
+    <t>frierre</t>
+  </si>
+  <si>
+    <t>Hadryen</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>mercedes</t>
+  </si>
+  <si>
+    <t>Nour</t>
+  </si>
+  <si>
+    <t>patrick</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Wellan</t>
+  </si>
+  <si>
+    <t>xbob</t>
+  </si>
+  <si>
+    <t>pseudo</t>
+  </si>
+  <si>
     <t xml:space="preserve">xbobette </t>
-  </si>
-  <si>
-    <t>rocher</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>burnie</t>
-  </si>
-  <si>
-    <t>dedue</t>
-  </si>
-  <si>
-    <t>fierre</t>
-  </si>
-  <si>
-    <t>fordi</t>
-  </si>
-  <si>
-    <t>frierre</t>
-  </si>
-  <si>
-    <t>Hadryen</t>
-  </si>
-  <si>
-    <t>jason</t>
-  </si>
-  <si>
-    <t>jean</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>Kira</t>
-  </si>
-  <si>
-    <t>louis</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>mercedes</t>
-  </si>
-  <si>
-    <t>Nour</t>
-  </si>
-  <si>
-    <t>patrick</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>Wellan</t>
-  </si>
-  <si>
-    <t>xbob</t>
-  </si>
-  <si>
-    <t>pseudo</t>
   </si>
   <si>
     <t>xcharles</t>
@@ -158,31 +158,31 @@
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -190,7 +190,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0.0</v>
@@ -209,22 +209,22 @@
         <v>2.0</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -232,7 +232,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0.0</v>
@@ -251,22 +251,22 @@
         <v>2.0</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -274,7 +274,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -293,22 +293,22 @@
         <v>2.0</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -316,7 +316,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -335,22 +335,22 @@
         <v>2.0</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -371,28 +371,28 @@
         <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H7" t="n">
         <v>2.0</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -400,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -416,25 +416,25 @@
         <v>5.0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -461,22 +461,22 @@
         <v>3.0</v>
       </c>
       <c r="I9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -497,28 +497,28 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -545,22 +545,22 @@
         <v>2.0</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -587,22 +587,22 @@
         <v>2.0</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -623,28 +623,28 @@
         <v>1.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H13" t="n">
         <v>2.0</v>
       </c>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -665,28 +665,28 @@
         <v>1.0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" t="n">
         <v>2.0</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -713,22 +713,22 @@
         <v>2.0</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -755,22 +755,22 @@
         <v>2.0</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -797,22 +797,22 @@
         <v>2.0</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -833,28 +833,28 @@
         <v>1.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H18" t="n">
         <v>2.0</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -875,28 +875,28 @@
         <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n">
         <v>2.0</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -914,31 +914,31 @@
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H20" t="n">
         <v>2.0</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -952,35 +952,35 @@
         <v>0.0</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.0</v>
+        <v>32.0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -988,26 +988,26 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
         <v>3</v>
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
         <v>3</v>
@@ -1049,22 +1049,22 @@
         <v>2.0</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1091,22 +1091,22 @@
         <v>8.0</v>
       </c>
       <c r="I24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
